--- a/jpcore-r4/feature/swg2-身体所見サンプル/CodeSystem-jp-procedure-codes-nurse-cs.xlsx
+++ b/jpcore-r4/feature/swg2-身体所見サンプル/CodeSystem-jp-procedure-codes-nurse-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T04:44:40+00:00</t>
+    <t>2022-08-08T00:38:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
